--- a/data/Data.xlsx
+++ b/data/Data.xlsx
@@ -377,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -402,13 +402,13 @@
         <v>Obraběč kovů</v>
       </c>
       <c r="G1" s="1" t="str">
+        <v>Mechanik elektrtechnik</v>
+      </c>
+      <c r="H1" s="1" t="str">
+        <v>Elektrikář silnoproud</v>
+      </c>
+      <c r="I1" s="1" t="str">
         <v>Mechanik seřizovač</v>
-      </c>
-      <c r="H1" s="1" t="str">
-        <v>Nástrojař</v>
-      </c>
-      <c r="I1" s="1" t="str">
-        <v>Obraběč kovů</v>
       </c>
       <c r="J1" s="1" t="str">
         <v>Strojní Mechanik</v>
@@ -456,10 +456,42 @@
         <v>on</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="1" t="str">
+        <v>e</v>
+      </c>
+      <c r="B5" s="1" t="str">
+        <v>w</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <v>ll@asd</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <v>on</v>
+      </c>
+      <c r="E5" s="1" t="str">
+        <v>on</v>
+      </c>
+      <c r="F5" s="1" t="str">
+        <v>on</v>
+      </c>
+      <c r="G5" s="1" t="str">
+        <v>on</v>
+      </c>
+      <c r="H5" s="1" t="str">
+        <v>on</v>
+      </c>
+      <c r="I5" s="1" t="str">
+        <v>on</v>
+      </c>
+      <c r="J5" s="1" t="str">
+        <v>on</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J5"/>
   </ignoredErrors>
 </worksheet>
 </file>